--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Bellorin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{193B7D95-DCE7-41A2-9F56-23232356662C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C2A4A6-C04E-49D2-80C4-DAF4EF5732E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{8C73A73B-10B5-4D35-A545-9D7E95093D61}"/>
   </bookViews>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="1">
+  <si>
+    <t>sdf</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +379,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECE9F55-BFDB-44BB-9CD8-5D4362AB4F12}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>